--- a/data/financial_statements/soci/SEDG.xlsx
+++ b/data/financial_statements/soci/SEDG.xlsx
@@ -14,9 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,114 +592,114 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41455</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B2">
         <v>836723000</v>
@@ -615,7 +711,7 @@
         <v>655080000</v>
       </c>
       <c r="E2">
-        <v>551915000</v>
+        <v>551914900</v>
       </c>
       <c r="F2">
         <v>526404000</v>
@@ -706,8 +802,8 @@
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5895</v>
@@ -810,23 +906,23 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>614565000</v>
+        <v>614722000</v>
       </c>
       <c r="C4">
-        <v>544814000</v>
+        <v>545132000</v>
       </c>
       <c r="D4">
         <v>476122000</v>
       </c>
       <c r="E4">
-        <v>391605000</v>
+        <v>391424000</v>
       </c>
       <c r="F4">
-        <v>353940000</v>
+        <v>353843000</v>
       </c>
       <c r="G4">
         <v>323865000</v>
@@ -908,23 +1004,23 @@
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>222158000</v>
+        <v>222001000</v>
       </c>
       <c r="C5">
-        <v>182960000</v>
+        <v>182642000</v>
       </c>
       <c r="D5">
         <v>178958000</v>
       </c>
       <c r="E5">
-        <v>160310000</v>
+        <v>160490900</v>
       </c>
       <c r="F5">
-        <v>172464000</v>
+        <v>172561000</v>
       </c>
       <c r="G5">
         <v>156192000</v>
@@ -1012,23 +1108,23 @@
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>68851000</v>
+        <v>69659000</v>
       </c>
       <c r="C6">
-        <v>73153000</v>
+        <v>74847000</v>
       </c>
       <c r="D6">
         <v>66349000</v>
       </c>
       <c r="E6">
-        <v>65220000</v>
+        <v>64326000</v>
       </c>
       <c r="F6">
-        <v>56142000</v>
+        <v>55666000</v>
       </c>
       <c r="G6">
         <v>52664000</v>
@@ -1113,8 +1209,8 @@
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7">
         <v>70659000</v>
@@ -1129,7 +1225,7 @@
         <v>55127000</v>
       </c>
       <c r="F7">
-        <v>50702000</v>
+        <v>50481000</v>
       </c>
       <c r="G7">
         <v>48828000</v>
@@ -1211,8 +1307,8 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
         <v>84407000</v>
@@ -1315,8 +1411,8 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B9">
         <v>32859000</v>
@@ -1344,8 +1440,8 @@
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
         <v>33025000</v>
@@ -1445,23 +1541,23 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>8963000</v>
+        <v>-25492000</v>
       </c>
       <c r="C11">
-        <v>1839000</v>
+        <v>-14311000</v>
       </c>
       <c r="D11">
-        <v>-934000</v>
+        <v>-5449000</v>
       </c>
       <c r="E11">
-        <v>-221000</v>
+        <v>-6324000</v>
       </c>
       <c r="F11">
-        <v>-2556000</v>
+        <v>-5751000</v>
       </c>
       <c r="G11">
         <v>-1743000</v>
@@ -1543,8 +1639,8 @@
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12">
         <v>58915000</v>
@@ -1647,8 +1743,8 @@
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B13">
         <v>34172000</v>
@@ -1748,8 +1844,8 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B14">
         <v>24743000</v>
@@ -1849,8 +1945,8 @@
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1863,8 +1959,8 @@
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="M16">
         <v>-433000</v>
@@ -1880,8 +1976,8 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B17">
         <v>24743000</v>
@@ -1981,23 +2077,23 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B18">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="C18">
         <v>0.27</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E18">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="F18">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="G18">
         <v>0.87</v>
@@ -2085,8 +2181,8 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0.43</v>
@@ -2189,8 +2285,8 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
         <v>55730300</v>
@@ -2202,7 +2298,7 @@
         <v>53134900</v>
       </c>
       <c r="E20">
-        <v>52664400</v>
+        <v>52202200</v>
       </c>
       <c r="F20">
         <v>52355900</v>
@@ -2293,8 +2389,8 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
         <v>58747500</v>
@@ -2306,7 +2402,7 @@
         <v>56315200</v>
       </c>
       <c r="E21">
-        <v>56011000</v>
+        <v>55971000</v>
       </c>
       <c r="F21">
         <v>55929000</v>
@@ -2397,23 +2493,23 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B22">
-        <v>0.2655</v>
+        <v>0.2653</v>
       </c>
       <c r="C22">
-        <v>0.2514</v>
+        <v>0.251</v>
       </c>
       <c r="D22">
         <v>0.2732</v>
       </c>
       <c r="E22">
-        <v>0.2905</v>
+        <v>0.2908</v>
       </c>
       <c r="F22">
-        <v>0.3276</v>
+        <v>0.3278</v>
       </c>
       <c r="G22">
         <v>0.3254</v>
@@ -2501,8 +2597,8 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B23">
         <v>0.1009</v>
@@ -2605,8 +2701,8 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0.0704</v>
@@ -2709,8 +2805,8 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B25">
         <v>0.0296</v>
@@ -2813,23 +2909,23 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B26">
-        <v>96279000</v>
+        <v>100799000</v>
       </c>
       <c r="C26">
-        <v>56023000</v>
+        <v>56052000</v>
       </c>
       <c r="D26">
-        <v>62524000</v>
+        <v>65802000</v>
       </c>
       <c r="E26">
-        <v>50104000</v>
+        <v>55483000</v>
       </c>
       <c r="F26">
-        <v>75720000</v>
+        <v>79982000</v>
       </c>
       <c r="G26">
         <v>68149000</v>
@@ -2917,8 +3013,8 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B27">
         <v>84407000</v>
@@ -3018,8 +3114,8 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B28">
         <v>24743000</v>
@@ -3119,16 +3215,16 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B30">
         <v>24743000</v>
@@ -3231,8 +3327,8 @@
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B31">
         <v>0.444</v>
@@ -3332,8 +3428,8 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B32">
         <v>0.4212</v>
@@ -3433,8 +3529,8 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B33">
         <v>0.444</v>
@@ -3534,8 +3630,8 @@
       </c>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B34">
         <v>0.4212</v>
@@ -3635,8 +3731,8 @@
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B35">
         <v>59532000</v>
@@ -3739,23 +3835,23 @@
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>0.1151</v>
+        <v>0.1205</v>
       </c>
       <c r="C36">
         <v>0.077</v>
       </c>
       <c r="D36">
-        <v>0.0954</v>
+        <v>0.1004</v>
       </c>
       <c r="E36">
-        <v>0.09080000000000001</v>
+        <v>0.1005</v>
       </c>
       <c r="F36">
-        <v>0.1438</v>
+        <v>0.1519</v>
       </c>
       <c r="G36">
         <v>0.142</v>
@@ -3843,8 +3939,8 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B37">
         <v>0.0066</v>
